--- a/1. Prijedlog projekta/GameStars studija izvedivosti.xlsx
+++ b/1. Prijedlog projekta/GameStars studija izvedivosti.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Analiza troškova</t>
   </si>
@@ -135,13 +136,88 @@
   </si>
   <si>
     <t>UKUPNO</t>
+  </si>
+  <si>
+    <t>Analiza izvedivosti</t>
+  </si>
+  <si>
+    <t>Sigurnost i privatnost podataka korisnika</t>
+  </si>
+  <si>
+    <t>Podrška za više uređaja</t>
+  </si>
+  <si>
+    <t>Višejezična podrška</t>
+  </si>
+  <si>
+    <t>Pravna i regulativna usklađenost</t>
+  </si>
+  <si>
+    <t>Skalabilnost baze podataka</t>
+  </si>
+  <si>
+    <t>Izrada vlastitog sustava</t>
+  </si>
+  <si>
+    <t>Operativna</t>
+  </si>
+  <si>
+    <t>Tehnička</t>
+  </si>
+  <si>
+    <t>Vremenska</t>
+  </si>
+  <si>
+    <t>Pravna</t>
+  </si>
+  <si>
+    <t>Rizici</t>
+  </si>
+  <si>
+    <t>Financijska</t>
+  </si>
+  <si>
+    <t>Ocjena alternative</t>
+  </si>
+  <si>
+    <t>Nabava novog sustava</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Brzina pristupa turnirima</t>
+  </si>
+  <si>
+    <t>Visoka kvaliteta streaminga mečeva</t>
+  </si>
+  <si>
+    <t>Integracija s platformama društvenih medija</t>
+  </si>
+  <si>
+    <t>Troškovi</t>
+  </si>
+  <si>
+    <t>Sigurnosno kopiranje i oporavak podataka</t>
+  </si>
+  <si>
+    <t>Izrada</t>
+  </si>
+  <si>
+    <t>Nabava</t>
+  </si>
+  <si>
+    <t>Sigurnost i privatnost</t>
+  </si>
+  <si>
+    <t>Finalni Prijedlog Najpovoljnije Alternative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +232,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,6 +430,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,4 +1189,704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
+        <v>3</v>
+      </c>
+      <c r="H3" s="19">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19">
+        <v>3</v>
+      </c>
+      <c r="K3" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>3</v>
+      </c>
+      <c r="K4" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3</v>
+      </c>
+      <c r="J6" s="19">
+        <v>3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>3</v>
+      </c>
+      <c r="J7" s="19">
+        <v>3</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>3</v>
+      </c>
+      <c r="K8" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2.33</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1.833</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1.833</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3</v>
+      </c>
+      <c r="K9" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>3</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3</v>
+      </c>
+      <c r="J12" s="19">
+        <v>3</v>
+      </c>
+      <c r="K12" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>3</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19">
+        <v>3</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3</v>
+      </c>
+      <c r="K14" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>3</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1.833</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1.833</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2.67</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="19">
+        <v>3</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="K17" s="19">
+        <v>2.6669999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>